--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.528161333333333</v>
+        <v>2.738607</v>
       </c>
       <c r="H2">
-        <v>13.584484</v>
+        <v>8.215821</v>
       </c>
       <c r="I2">
-        <v>0.3225352762763812</v>
+        <v>0.2235648590725649</v>
       </c>
       <c r="J2">
-        <v>0.3225352762763812</v>
+        <v>0.223564859072565</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,19 +561,19 @@
         <v>0.393072250513715</v>
       </c>
       <c r="P2">
-        <v>0.393072250513715</v>
+        <v>0.3930722505137151</v>
       </c>
       <c r="Q2">
-        <v>4.693870906713777</v>
+        <v>2.838827236034</v>
       </c>
       <c r="R2">
-        <v>42.244838160424</v>
+        <v>25.549445124306</v>
       </c>
       <c r="S2">
-        <v>0.12677966691602</v>
+        <v>0.08787714229143463</v>
       </c>
       <c r="T2">
-        <v>0.12677966691602</v>
+        <v>0.08787714229143467</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.528161333333333</v>
+        <v>2.738607</v>
       </c>
       <c r="H3">
-        <v>13.584484</v>
+        <v>8.215821</v>
       </c>
       <c r="I3">
-        <v>0.3225352762763812</v>
+        <v>0.2235648590725649</v>
       </c>
       <c r="J3">
-        <v>0.3225352762763812</v>
+        <v>0.223564859072565</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,19 +623,19 @@
         <v>0.6069277494862849</v>
       </c>
       <c r="P3">
-        <v>0.606927749486285</v>
+        <v>0.6069277494862849</v>
       </c>
       <c r="Q3">
-        <v>7.247625600809333</v>
+        <v>4.383323990169</v>
       </c>
       <c r="R3">
-        <v>65.228630407284</v>
+        <v>39.449915911521</v>
       </c>
       <c r="S3">
-        <v>0.1957556093603612</v>
+        <v>0.1356877167811303</v>
       </c>
       <c r="T3">
-        <v>0.1957556093603612</v>
+        <v>0.1356877167811303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>18.812855</v>
       </c>
       <c r="I4">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="J4">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,19 +685,19 @@
         <v>0.393072250513715</v>
       </c>
       <c r="P4">
-        <v>0.393072250513715</v>
+        <v>0.3930722505137151</v>
       </c>
       <c r="Q4">
         <v>6.500439233225555</v>
       </c>
       <c r="R4">
-        <v>58.50395309902999</v>
+        <v>58.50395309903</v>
       </c>
       <c r="S4">
-        <v>0.1755743899171571</v>
+        <v>0.2012239477640917</v>
       </c>
       <c r="T4">
-        <v>0.1755743899171571</v>
+        <v>0.2012239477640917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>18.812855</v>
       </c>
       <c r="I5">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="J5">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,19 +747,19 @@
         <v>0.6069277494862849</v>
       </c>
       <c r="P5">
-        <v>0.606927749486285</v>
+        <v>0.6069277494862849</v>
       </c>
       <c r="Q5">
         <v>10.03707829626167</v>
       </c>
       <c r="R5">
-        <v>90.333704666355</v>
+        <v>90.33370466635499</v>
       </c>
       <c r="S5">
-        <v>0.2710976651253826</v>
+        <v>0.3107021612428594</v>
       </c>
       <c r="T5">
-        <v>0.2710976651253826</v>
+        <v>0.3107021612428594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>9.720485</v>
       </c>
       <c r="I6">
-        <v>0.2307926686810791</v>
+        <v>0.2645090319204839</v>
       </c>
       <c r="J6">
-        <v>0.2307926686810791</v>
+        <v>0.2645090319204839</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,7 +809,7 @@
         <v>0.393072250513715</v>
       </c>
       <c r="P6">
-        <v>0.393072250513715</v>
+        <v>0.3930722505137151</v>
       </c>
       <c r="Q6">
         <v>3.358736462912222</v>
@@ -818,10 +818,10 @@
         <v>30.22862816621</v>
       </c>
       <c r="S6">
-        <v>0.09071819368053795</v>
+        <v>0.1039711604581887</v>
       </c>
       <c r="T6">
-        <v>0.09071819368053793</v>
+        <v>0.1039711604581887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.720485</v>
       </c>
       <c r="I7">
-        <v>0.2307926686810791</v>
+        <v>0.2645090319204839</v>
       </c>
       <c r="J7">
-        <v>0.2307926686810791</v>
+        <v>0.2645090319204839</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,19 +871,19 @@
         <v>0.6069277494862849</v>
       </c>
       <c r="P7">
-        <v>0.606927749486285</v>
+        <v>0.6069277494862849</v>
       </c>
       <c r="Q7">
-        <v>5.186095838331667</v>
+        <v>5.186095838331666</v>
       </c>
       <c r="R7">
         <v>46.674862544985</v>
       </c>
       <c r="S7">
-        <v>0.1400744750005411</v>
+        <v>0.1605378714622952</v>
       </c>
       <c r="T7">
-        <v>0.1400744750005411</v>
+        <v>0.1605378714622952</v>
       </c>
     </row>
   </sheetData>
